--- a/www/ig/fhir/tddui/StructureDefinition-tddui-questionnaire-response.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-questionnaire-response.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:37:15+00:00</t>
+    <t>2026-02-06T14:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>QuestionnaireResponse.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -634,7 +634,7 @@
 </t>
   </si>
   <si>
-    <t>Responsable et auteur du statut de l'évaluation</t>
+    <t>TDDUI QR Participant</t>
   </si>
   <si>
     <t>Extension permettant d'ajouter le responsable de l'évaluation et l'auteur du statut de l'évaluation dans un QuestionnaireResponse.</t>
@@ -764,10 +764,10 @@
 </t>
   </si>
   <si>
-    <t>Pièce jointe</t>
-  </si>
-  <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>TDDUI Attachment</t>
+  </si>
+  <si>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>pieceJointeEvaluation</t>
@@ -783,7 +783,7 @@
 </t>
   </si>
   <si>
-    <t>Commentaire</t>
+    <t>TDDUI Comment</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -898,7 +898,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -974,7 +974,7 @@
     <t>QuestionnaireResponse.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1000,7 +1000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
+    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1048,7 +1048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -1426,7 +1426,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t>.item</t>
@@ -1854,15 +1854,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="88.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="76.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1873,27 +1873,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="52.78515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.7265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.25390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.6328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="95.85546875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
